--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Temperos.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Temperos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tempero Sazon Carne 60g</t>
+          <t>Caldo Knorr 57g Bacon E Louro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b69afec3-bca7-4c47-8634-7a1ac80a1f11.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4cb3064-955d-453e-8582-4a8a743efebc.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891150047662</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vinagre Vitalia 750ml Alcool</t>
+          <t>Tempero A Base Peixe Hondashi 60 Gr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b371217f-c851-4a6d-9ab8-b3c4e9908a79.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a74e32c-77c9-4d95-978d-31ca94fd77d1.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891132040018</t>
         </is>
       </c>
     </row>
@@ -515,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tempero Sazon 60g Legumes Verdura E Arroz</t>
+          <t>Tempero Sazon 60g Sabor Nordeste</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/223eff0f-f844-439b-badd-96bb5eb63a79.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95a1281a-9950-4215-9885-79d633ef4d19.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891132083015</t>
         </is>
       </c>
     </row>
@@ -542,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tempero Sazon 60g Aves Peixes E Arroz</t>
+          <t>Tempero Maggi Meu Segredo 49g Vegetais</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +572,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61616977-cacc-4bb5-ac61-da9f63da9354.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4985417-bb16-46ee-af8a-64dfa4c3fef4.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891000006689</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vinagre Alcool Castelo 750ml Suave</t>
+          <t>Tempero Fondor Maggi 120g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/644745c3-219e-469c-8f52-0f068b94fd52.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70fd6c4c-725f-42bd-ae9d-b9d4d7263438.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891000502105</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tempero Sazon 60g Feijao Ovos E Arroz</t>
+          <t>Tempero Grill Maggi 120g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9087bf58-1b0b-446a-9b7e-dd854bb6baf9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2ee8ef7-852c-4a3d-b88e-b3293427ae80.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891000502105</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tempero Sazon 60g Sabor Nordeste</t>
+          <t>Tempero Amaciante De Carne Maggi 120g</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 13,49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95a1281a-9950-4215-9885-79d633ef4d19.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fab6166c-ff64-4044-bfbf-f142d48fe5cc.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891000502303</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vinagre Alcool Castelo 750ml Col</t>
+          <t>Tempero Completo S/pimenta Quero 300g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5f71758-d50a-4b55-b70a-fa13d3627a7a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85236cd8-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891132019038</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tempero Sazon Para Arroz Branco 60g</t>
+          <t>Tempero Alho E Sal Quero 300g</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a6ce23b-4775-45a7-9408-3e84dab01508.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/853e4c6c-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891132019021</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vinagre De Alcool Galo De Barcelos 750ml</t>
+          <t>Tempero Ajinomoto Receita Da Casa 450g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4243042f-a5dd-4ea1-833b-9ec0a77fad28.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2c07c71-e328-48ea-ab6c-20b9706832ba.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891132000012</t>
         </is>
       </c>
     </row>
@@ -731,7 +786,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tempero Sazon 60g Salada</t>
+          <t>Tempero Sazon Para Arroz Branco 60g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -741,7 +796,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7534eaa9-7600-4419-8328-11fdc0010d6f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a6ce23b-4775-45a7-9408-3e84dab01508.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891132000449</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Caldo Sazon 32,5g Legumes</t>
+          <t>Realçador De Sabor Ajinomoto Pacote 200g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0943bdaf-0a00-4ff0-8227-807c33393718.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4bb79ae-15fe-4688-bf00-5120afc40079.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891132081011</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tempero Sazon 60gr Alho</t>
+          <t>Tempero Sabor Ami 300g Alho E Sal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be433f90-bef7-4271-be94-1d31a52b671f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d9fe4b4-5aac-4b87-8e02-0ab1dc1e095a.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891132019021</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Caldo Knorr 114g Galinha</t>
+          <t>Tempero Sabor Ami 300g S/pimenta</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3f41968-27b0-46cf-85e6-8a9889d3a9af.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff39c78e-cc9c-4ea5-abe2-446b6ce9ecab.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891132019038</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tempero Maggi Meu Segredo 49g Vegetais</t>
+          <t>Tempero Sabor Ami 300g C/pimenta</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4985417-bb16-46ee-af8a-64dfa4c3fef4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/910fc1c8-66c8-4f6c-8b3a-7a82a0a7887b.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891132019045</t>
         </is>
       </c>
     </row>
@@ -866,7 +946,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tempero Sazon 60g Massas Batata E Arroz</t>
+          <t>Tempero Sazon Carne 60g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -876,7 +956,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/97b5c034-ea13-4d7d-a1fb-138266afa83b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b69afec3-bca7-4c47-8634-7a1ac80a1f11.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891132009442</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Vinagre Fruta Castelo 750ml Maca</t>
+          <t>Tempero Sazon 60g Legumes Verdura E Arroz</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f4260e5-4981-46c7-a7a8-af71999882cc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/223eff0f-f844-439b-badd-96bb5eb63a79.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891132083008</t>
         </is>
       </c>
     </row>
@@ -920,7 +1010,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tempero Sazon 60gr Limao</t>
+          <t>Tempero Sazon 60g Salada</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -930,7 +1020,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f98b96e-91e7-4a14-ac71-867ca5686375.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7534eaa9-7600-4419-8328-11fdc0010d6f.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891132008704</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Caldo Sazon 32,5g Galinha</t>
+          <t>Realçador De Sabor Aji-sal Pacote 250g</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1cade8eb-9171-4ee0-9926-3fb9a7616249.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a682814-9a64-4ae3-b89a-7c2e038d34f2.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891132081011</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Caldo Sazon Carne 32,5g Carne</t>
+          <t>Tempero Aji Sal Pote 100gr</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14377cbf-fafa-4fdb-a36a-56ec0df08e3e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/298ea7dc-9591-49a5-8884-b8b275029b1e.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891132082018</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Caldo Sazon 32,5g Bacon</t>
+          <t>Caldo Knorr 57g Legumes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6609d937-19b5-44f1-970d-53554bd6b478.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0a2f52d-b877-44b9-8752-fcde300f3563.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891150072848</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Caldo Knorr 114g Carne</t>
+          <t>Caldo Knorr 57g Galinha</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe9de48a-15a6-46f1-a8ad-45a2376505a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19d230ae-1170-4750-a8d8-d82a973a8930.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7894000077475</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1170,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Vinagre Vitalia 750ml Colorido</t>
+          <t>Caldo Knorr 57g Carne</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1065,7 +1180,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d1b12db-abd9-4490-9a48-7db67afb5a3e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9373d55-12dd-479f-a679-b4542e22eab8.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891150047662</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tempero Maggi Meu Segredo 49g Alho/cebola</t>
+          <t>Caldo Knorr 57g Costela</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac114216-9ea4-4b5f-a504-9d38ec6e8957.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02076f7f-3e4f-4ca2-bc17-28b16f66db9f.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7894000077468</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Caldo Knorr 57g Carne</t>
+          <t>Vinagre Fruta Castelo 750ml Maca</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9373d55-12dd-479f-a679-b4542e22eab8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f4260e5-4981-46c7-a7a8-af71999882cc.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896048200105</t>
         </is>
       </c>
     </row>
@@ -1149,6 +1279,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/049e1edd-c54c-4fdd-aa7d-31c3b9326026.jpg</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896048282484</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Caldo Knorr 57g Bacon E Louro</t>
+          <t>Vinagre Castelo Tto Classico 750ml</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4cb3064-955d-453e-8582-4a8a743efebc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22d9a7e5-0916-4fcd-a0e4-159487127e79.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896048258014</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Vinagre Alcool Colorido Galo De Barcelos 750ml</t>
+          <t>Vinagre Castelo Branco Classico 750ml</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fcf20f5-9152-42b8-950f-f70a62634d25.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6f75c43-9160-43b1-8c5a-979382129ecc.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896048258038</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Caldo Sazon 32,5g Costela</t>
+          <t>Vinagre Alcool Castelo 750ml Hort</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/373cdc82-abbc-445b-9a17-e421543ad1cd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47acbd8a-1cb4-4dc9-9b4a-0b59ca52e914.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896048282484</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Caldo Knorr 57g Legumes</t>
+          <t>Vinagre Castelo Balsamico 500ml</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0a2f52d-b877-44b9-8752-fcde300f3563.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b258b1ed-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896048284075</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Caldo Sazon 32,5g Picanha</t>
+          <t>Vinagre Vitalia 750ml Colorido</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6614b55a-0562-442e-a3c6-9b06a01a6c8b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d1b12db-abd9-4490-9a48-7db67afb5a3e.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896057800525</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Caldo Em Po Maggi 35g Galinha</t>
+          <t>Caldo De Carne Arisco 114g</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/125c0c5f-9aa1-4ecf-9a50-f26361203cd0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d731ca8-0a93-46c4-98cf-979f32998ca2.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891700080378</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1490,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Caldo Knorr 57g Galinha</t>
+          <t>Vinagre Alcool Castelo 750ml Suave</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1335,7 +1500,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19d230ae-1170-4750-a8d8-d82a973a8930.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/644745c3-219e-469c-8f52-0f068b94fd52.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896048282484</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Vinagre Castelo Tto Classico 750ml</t>
+          <t>Caldo De Galinha Caip Arisco 114g</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22d9a7e5-0916-4fcd-a0e4-159487127e79.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee7dee5b-3283-4187-b292-316c7ca0c3b3.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7891700080439</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Vinagre De Maça Galo De Barcelos 750ml</t>
+          <t>Vinagre Alcool Castelo 750ml C/alho</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2632fe4f-e4dc-4808-9233-e698f61ea21f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95298bcb-be13-4413-b53d-3d721e786b94.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896048284242</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Caldo Maggi 114gr Galinha</t>
+          <t>Vinagre Alcool Castelo 750ml Col</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f4a4f8c-8779-4bcc-8ee4-1700db192fe4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5f71758-d50a-4b55-b70a-fa13d3627a7a.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896048284242</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Vinagre De Maçã Sem Glúten Natural Life 500g</t>
+          <t>Tempero Sazon 60gr Alho</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31e606f8-6e24-4cc6-9f15-77668d7d85b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be433f90-bef7-4271-be94-1d31a52b671f.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7891132008704</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Caldo Sazon Carne 32,5g Carne Leve</t>
+          <t>Tempero Sazon 60gr Limao</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d846d9c-83fa-4133-a719-f1eaf6993cb3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f98b96e-91e7-4a14-ac71-867ca5686375.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7891132008704</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sazon Legumes 40g</t>
+          <t>Tempero Milanesa Sazon 60g Tradicional</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fc1dbd1-3dcf-4392-9292-e6a88559ff6d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a459eafe-fe42-401c-8bd6-5979af9d1232.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7891132009442</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tempero Maggi Meu Segredo 49g Cheiro Verde</t>
+          <t>Caldo Knorr 114g Galinha</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f892c7a-8537-43d8-b723-0e66c47d717c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3f41968-27b0-46cf-85e6-8a9889d3a9af.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7894000000350</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tempero Sabor Ami 300g S/pimenta</t>
+          <t>Caldo Knorr 114g Carne</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff39c78e-cc9c-4ea5-abe2-446b6ce9ecab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe9de48a-15a6-46f1-a8ad-45a2376505a9.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7894000000367</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Vinagre Castelo Branco Classico 750ml</t>
+          <t>Vinagre Alcool Colorido Galo De Barcelos 750ml</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6f75c43-9160-43b1-8c5a-979382129ecc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fcf20f5-9152-42b8-950f-f70a62634d25.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896057800174</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vinagre Cereal Castelo 750ml Arroz</t>
+          <t>Sumo De Limao Castelo 500ml</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/670dd34b-790c-4b42-a5e0-d9fe716d1689.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81ae9d80-8454-40a3-8f64-938b7414494f.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896048285270</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bicarbonato De Sodio Wally 500g</t>
+          <t>Caldo Maggi 57 Gr Carne</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4a0aaed-62f2-42e6-b406-3891a24ebc45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7a37c70-2696-4427-82b6-4476f9c2c6f0.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7891000249932</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tempero Ajinomoto Receita Da Casa 450g</t>
+          <t>Caldo Maggi 57 Gr Galinha</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2c07c71-e328-48ea-ab6c-20b9706832ba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fac066d1-50e4-467d-9f03-f2781bc4aafa.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7891000251539</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tempero Completo S/pimenta Quero 300g</t>
+          <t>Caldo Maggi 57g Bacon</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85236cd8-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f73f4fc8-f694-411d-95fd-01aa836b4d2c.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891000249932</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sazon Sabor Nordeste 40g</t>
+          <t>Vinagre Vitalia 750ml Alcool</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5f23879-5b91-484d-b4e5-e505aad040d4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b371217f-c851-4a6d-9ab8-b3c4e9908a79.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896057800174</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Caldo De Galinha Caip Arisco 114g</t>
+          <t>Vinagre Castelo Maca 500ml Sem Conservantes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee7dee5b-3283-4187-b292-316c7ca0c3b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ee85ca1-803f-4c74-b95e-4064a8b2c82f.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896048285539</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tempero Sabor Ami 300g Alho E Sal</t>
+          <t>Caldo Maggi 114gr Galinha</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d9fe4b4-5aac-4b87-8e02-0ab1dc1e095a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f4a4f8c-8779-4bcc-8ee4-1700db192fe4.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7891000251539</t>
         </is>
       </c>
     </row>
@@ -1784,7 +2034,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Caldo Maggi 57 Gr Galinha</t>
+          <t>Caldo Knorr Zero Sal 48gr Carne</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1794,7 +2044,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fac066d1-50e4-467d-9f03-f2781bc4aafa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7f9345d-855c-4653-8e51-935bd73eade0.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891150072831</t>
         </is>
       </c>
     </row>
@@ -1811,7 +2066,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Caldo Maggi 57 Gr Carne</t>
+          <t>Caldo Knorr Zero Sal 48gr Galinha</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1821,7 +2076,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7a37c70-2696-4427-82b6-4476f9c2c6f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e99bfd9d-59aa-48a4-9203-e8f65ee30d11.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7891150072824</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Caldo Knorr 57g Costela</t>
+          <t>Tempero E Sabor Maggi Tempero E Legu 50g</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02076f7f-3e4f-4ca2-bc17-28b16f66db9f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a68e85c-287a-4e01-876f-c6bb9ecdd27f.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7891000037256</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tempero Sabor Ami 300g C/pimenta</t>
+          <t>Tempero Sabor Ami 1kg C/pimenta</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/910fc1c8-66c8-4f6c-8b3a-7a82a0a7887b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b3b04a7-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7891132019076</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Caldo Maggi 57g Bacon</t>
+          <t>Sazon Legumes 40g</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f73f4fc8-f694-411d-95fd-01aa836b4d2c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fc1dbd1-3dcf-4392-9292-e6a88559ff6d.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7891132083008</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Caldo Sazon 32,5g Camarao</t>
+          <t>Sazon Sabor Nordeste 40g</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/130821ba-c213-4cca-94ab-53fba7bcfa41.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5f23879-5b91-484d-b4e5-e505aad040d4.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7891132083015</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Caldo Knorr Zero Sal 48gr Galinha</t>
+          <t>Caldo Sazon 32,5g Camarao</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e99bfd9d-59aa-48a4-9203-e8f65ee30d11.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/130821ba-c213-4cca-94ab-53fba7bcfa41.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7891132110193</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Caldo De Carne Arisco 114g</t>
+          <t>Caldo Sazon 32,5g Costela</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d731ca8-0a93-46c4-98cf-979f32998ca2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/373cdc82-abbc-445b-9a17-e421543ad1cd.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7891132110216</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tempero Amaciante De Carne Maggi 120g</t>
+          <t>Caldo Sazon 32,5g Legumes</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 13,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fab6166c-ff64-4044-bfbf-f142d48fe5cc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0943bdaf-0a00-4ff0-8227-807c33393718.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7891132083008</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Vinagre Alcool Castelo 750ml C/alho</t>
+          <t>Caldo Sazon 32,5g Lev Galinha</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95298bcb-be13-4413-b53d-3d721e786b94.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16082a2a-9843-412b-a4f7-4ce003e1c3ad.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7891132110230</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Realçador De Sabor Ajinomoto Refil 100g</t>
+          <t>Caldo Sazon 32,5g Picanha</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec33d5d7-a64e-46bb-9018-bfa67626ce3e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6614b55a-0562-442e-a3c6-9b06a01a6c8b.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7891132110230</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Caldo Maggi Costela 57g</t>
+          <t>Tempero Maggi Meu Segredo 49g Alho/cebola</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b834e714-5fd5-4c3e-ab1b-94477446550a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac114216-9ea4-4b5f-a504-9d38ec6e8957.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7891000006689</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2418,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tempero Maggi Meu Segredo 49g Tomate</t>
+          <t>Tempero Maggi Meu Segredo 49g Cheiro Verde</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2118,7 +2428,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/037f6114-bdc8-4b24-80e0-3d474ed50323.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f892c7a-8537-43d8-b723-0e66c47d717c.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891000006689</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Caldo Knorr Zero Sal 48gr Carne</t>
+          <t>Tempero Maggi Meu Segredo 49g Tomate</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7f9345d-855c-4653-8e51-935bd73eade0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/037f6114-bdc8-4b24-80e0-3d474ed50323.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7891000006689</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Caldo Sazon 32,5g Lev Galinha</t>
+          <t>Vinagre Balsamico Galo De Barcelos 375ml</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16082a2a-9843-412b-a4f7-4ce003e1c3ad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1adf3a38-177d-4f0e-8384-bdcbee7b636c.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7896057800037</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Vinagre Castelo Balsamico 500ml</t>
+          <t>Vinagre Balsamico Galo De Barcelos 750ml</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b258b1ed-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63b55a5a-f4ed-4b0d-aab4-28996dfe2b7a.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7896057877770</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tempero Alho E Sal Quero 300g</t>
+          <t>Vinagre De Alcool Galo De Barcelos 750ml</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/853e4c6c-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4243042f-a5dd-4ea1-833b-9ec0a77fad28.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896057800174</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Caldo Maggi 114gr Carne</t>
+          <t>Vinagre De Limao Galo De Barcelos 750ml</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81d76d4f-29bd-4cef-b6fa-23c37d59adf5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64cdddb4-bf46-42c9-b52c-da6f8095fe8f.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896057800181</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tempero Grill Maggi 120g</t>
+          <t>Vinagre De Maça Galo De Barcelos 750ml</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2ee8ef7-852c-4a3d-b88e-b3293427ae80.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2632fe4f-e4dc-4808-9233-e698f61ea21f.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896057800181</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2642,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Vinagre Alcool Castelo 750ml Hort</t>
+          <t>Vinagre De Vinho Branco Galo De Barcelos 750ml</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2307,7 +2652,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47acbd8a-1cb4-4dc9-9b4a-0b59ca52e914.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/985f3c3e-c88c-47ba-916e-d6f920c6213a.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896057855556</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Vinagre Balsamico Galo De Barcelos 375ml</t>
+          <t>Vinagre De Vinho Tinto Galo De Barcelos 750ml</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1adf3a38-177d-4f0e-8384-bdcbee7b636c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86cd7d6f-cb06-4cf0-8d08-d41ab8d2fd1b.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896057801010</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sumo De Limao Castelo 500ml</t>
+          <t>Caldo Sazon Carne 32,5g Carne Leve</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81ae9d80-8454-40a3-8f64-938b7414494f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d846d9c-83fa-4133-a719-f1eaf6993cb3.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7891132110209</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Caldo Maggi Menos Sodio 57g Galinha</t>
+          <t>Tempero Meu Assado Knorr 25g Limão E Orégano</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ce5c9b3-9de5-4f5d-b105-bcbb03c0597c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6eb48ad2-2aad-40c2-bac1-bb6eb72a8896.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7891150083691</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tempero Fondor Maggi 120g</t>
+          <t>Caldo Em Po Maggi 35g Galinha</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70fd6c4c-725f-42bd-ae9d-b9d4d7263438.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/125c0c5f-9aa1-4ecf-9a50-f26361203cd0.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7891000285848</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Realçador De Sabor Ajinomoto 100g</t>
+          <t>Caldo Sazon 32,5g Bacon</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6bcd997-0386-4e72-b59d-e98a7a185479.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6609d937-19b5-44f1-970d-53554bd6b478.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7891132110216</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Vinagre Castelo Maca 500ml Sem Conservantes</t>
+          <t>Caldo Sazon 32,5g Galinha</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ee85ca1-803f-4c74-b95e-4064a8b2c82f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1cade8eb-9171-4ee0-9926-3fb9a7616249.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7891132110230</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Realçador De Sabor Aji-sal Pacote 250g</t>
+          <t>Caldo Sazon Carne 32,5g Carne</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a682814-9a64-4ae3-b89a-7c2e038d34f2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14377cbf-fafa-4fdb-a36a-56ec0df08e3e.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7891132110216</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Vinagre De Vinho Branco Galo De Barcelos 750ml</t>
+          <t>Temp Pó Knorr 50g Arroz 10 Unidades 5g Cada</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/985f3c3e-c88c-47ba-916e-d6f920c6213a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b04bc3b-765f-4183-8559-351b66f6e325.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7891150088689</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tempero Sazon Na Medida Cheiro Verde 30g</t>
+          <t>Tempero Em Pó Para Carnes Knorr Pacote 50g 10 Unidades De 5g Cada</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c8a8d2a-ba88-4c79-9f32-c1618419b7fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92f85c36-3d4d-4e67-862c-58a4c720a960.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7891150088719</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Vinagre De Vinho Tinto Galo De Barcelos 750ml</t>
+          <t>Tempero Em Pó Knorr 50g Feijão</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86cd7d6f-cb06-4cf0-8d08-d41ab8d2fd1b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33e39275-bdf4-407d-9da9-835b1532adc9.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891150088696</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2994,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Temp Pó Knorr 50g Arroz 10 Unidades 5g Cada</t>
+          <t>Tempero Em Pó Para Frango Knorr Pacote 50g 10 Unidades De 5g Cada</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2604,7 +3004,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b04bc3b-765f-4183-8559-351b66f6e325.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e29caa55-fc1a-4545-b8fa-cbbb5cc114b3.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7891150088702</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Vinagre Balsamico Galo De Barcelos 750ml</t>
+          <t>Caldo Maggi Menos Sódio 57g Carne</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63b55a5a-f4ed-4b0d-aab4-28996dfe2b7a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f933ec72-d5aa-4a92-8100-dee7dcabc3df.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7891150047662</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Vinagre De Limao Galo De Barcelos 750ml</t>
+          <t>Caldo Maggi Menos Sodio 57g Galinha</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64cdddb4-bf46-42c9-b52c-da6f8095fe8f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ce5c9b3-9de5-4f5d-b105-bcbb03c0597c.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7891000251539</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tempero A Base Peixe Hondashi 60 Gr</t>
+          <t>Bicarbonato De Sodio Wally 500g</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a74e32c-77c9-4d95-978d-31ca94fd77d1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4a0aaed-62f2-42e6-b406-3891a24ebc45.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7896237509484</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tempero E Sabor Maggi Tempero E Legu 50g</t>
+          <t>Caldo Maggi 114gr Carne</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a68e85c-287a-4e01-876f-c6bb9ecdd27f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81d76d4f-29bd-4cef-b6fa-23c37d59adf5.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7891000251539</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Realçador De Sabor Ajinomoto Pacote 200g</t>
+          <t>Cup Noodles Nissin 68g Nachos</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4bb79ae-15fe-4688-bf00-5120afc40079.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faf69678-90cc-4e0b-afe9-26ef4cda74b5.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7891079013984</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tempero Sabor Ami 1kg C/pimenta</t>
+          <t>Tempero Sazon Na Medida Cheiro Verde 30g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b3b04a7-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c8a8d2a-ba88-4c79-9f32-c1618419b7fc.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7891132165650</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tempero Em Pó Knorr 50g Feijão</t>
+          <t>Tempero Sazon Na Medida Tomate 30g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33e39275-bdf4-407d-9da9-835b1532adc9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5218ae88-e40a-4899-8edf-b27b5393060d.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7891132165674</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tempero Meu Assado Knorr 25g Limão E Orégano</t>
+          <t>Tempero Sazon Na Medida Vegetais 30g</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6eb48ad2-2aad-40c2-bac1-bb6eb72a8896.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/461331b8-fb29-4b0c-b849-bf2468e1d257.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7891132165636</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Tempero Aji Sal Pote 100gr</t>
+          <t>Tempero Em Po Tempera E Transforma Sazon 16g Alho E Cebola</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/298ea7dc-9591-49a5-8884-b8b275029b1e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3276dec-5a74-48e3-8ef4-796ad8daa07d.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7891132165834</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Caldo Maggi Menos Sódio 57g Carne</t>
+          <t>Tempempo Em Po Tempera E Transforma Sazon 16g Queijo</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f933ec72-d5aa-4a92-8100-dee7dcabc3df.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/522662d3-dd43-4fd7-b0a1-1541f2e4dcf2.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7891132165858</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Tempero Em Pó Para Frango Knorr Pacote 50g 10 Unidades De 5g Cada</t>
+          <t>Tempero Em Po Tempera E Transforma Sazon 16g Tomate</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e29caa55-fc1a-4545-b8fa-cbbb5cc114b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ae13082-9a81-4e75-8ab5-a560e6d11a1b.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7891132165872</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Aceto Balsâmico La Pastina 500ml</t>
+          <t>Vinagre Alcool Almaromi 400ml Limão</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/967b2688-f1b4-47e5-9646-d025948379ab.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7898908593976</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Tempero Milanesa Sazon 60g Tradicional</t>
+          <t>Vinagre Alcool Almaromi 400ml Limão Siciliano</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a459eafe-fe42-401c-8bd6-5979af9d1232.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e02d1bd-802f-4293-9bb2-149f706548c7.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7898908593976</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cup Noodles Nissin 68g Nachos</t>
+          <t>Vinagre Orgânico Almaromi 400ml Maça</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faf69678-90cc-4e0b-afe9-26ef4cda74b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17eec47d-a708-4f13-b183-e272c127446a.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7898908593617</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tempero Sazon Na Medida Tomate 30g</t>
+          <t>Tempero Sabor Ami 1kg Sem Pimenta</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5218ae88-e40a-4899-8edf-b27b5393060d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7e75315-850c-4b35-958e-c99ec678b684.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7891132019076</t>
         </is>
       </c>
     </row>
@@ -3026,314 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Tempero Sazon Na Medida Vegetais 30g</t>
+          <t>Vinagre De Fruta Almaromi 400ml Maça</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/461331b8-fb29-4b0c-b849-bf2468e1d257.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Tempero Em Pó Para Carnes Knorr Pacote 50g 10 Unidades De 5g Cada</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92f85c36-3d4d-4e67-862c-58a4c720a960.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Tempero Em Po Tempera E Transforma Sazon 16g Alho E Cebola</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3276dec-5a74-48e3-8ef4-796ad8daa07d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Vinagre De Fruta Almaromi 400ml Maça</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c36d51bc-87ec-4625-bb13-218595fbdef5.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Crema Balsamico La Pastina 150ml Trad</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>R$ 33,99</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e7d31d3-7892-4e2d-a85e-10a9e8965828.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Tempero Em Po Tempera E Transforma Sazon 16g Tomate</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ae13082-9a81-4e75-8ab5-a560e6d11a1b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Vinagre Orgânico Almaromi 400ml Maça</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17eec47d-a708-4f13-b183-e272c127446a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Tempempo Em Po Tempera E Transforma Sazon 16g Queijo</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/522662d3-dd43-4fd7-b0a1-1541f2e4dcf2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Tempero Em Po Tempera E Rende Mais Sazon 40g</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/478db9a8-3910-4c30-a946-baf6f825e2db.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Vinagre Alcool Almaromi 400ml Limão Siciliano</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e02d1bd-802f-4293-9bb2-149f706548c7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Tempero Sabor Ami 1kg Sem Pimenta</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7e75315-850c-4b35-958e-c99ec678b684.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Temperos</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Vinagre Alcool Almaromi 400ml Limão</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7898908593310</t>
         </is>
       </c>
     </row>
